--- a/PRO1041_NHOM4/dataJeanStore.xlsx
+++ b/PRO1041_NHOM4/dataJeanStore.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\duan1\duAn1Nhom4\PRO1041_NHOM4\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="101">
   <si>
     <t>Id khách hàng</t>
   </si>
@@ -311,12 +311,28 @@
   </si>
   <si>
     <t>tên</t>
+  </si>
+  <si>
+    <t>Dsq0</t>
+  </si>
+  <si>
+    <t>Quần Jeans Levi ống rộng1</t>
+  </si>
+  <si>
+    <t>cc1</t>
+  </si>
+  <si>
+    <t>Màu xanh nhạt</t>
+  </si>
+  <si>
+    <t>KH17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -637,7 +653,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,12 +676,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -673,19 +689,19 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>45363</v>
-      </c>
-      <c r="G2">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45363.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45388.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -696,19 +712,19 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>45363</v>
-      </c>
-      <c r="G3">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45363.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>45384.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -719,19 +735,19 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>45363</v>
-      </c>
-      <c r="G4">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45363.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>45378.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -742,19 +758,19 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>45378</v>
-      </c>
-      <c r="G5">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>12</v>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45378.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45384.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12.0</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -765,19 +781,19 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>45378</v>
-      </c>
-      <c r="G6">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>13</v>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45378.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>45379.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13.0</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -788,16 +804,17 @@
       <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>14</v>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>45378.0</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14.0</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -808,19 +825,19 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>45378</v>
-      </c>
-      <c r="G8">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>15</v>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>45378.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>45381.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>15.0</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -831,19 +848,19 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>45379</v>
-      </c>
-      <c r="G9">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>16</v>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>45379.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>45379.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16.0</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -854,16 +871,17 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>17</v>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45379.0</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17.0</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -874,14 +892,14 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>45379</v>
-      </c>
-      <c r="G11">
-        <v>45379</v>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>45379.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>45379.0</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +915,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -917,9 +935,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -927,36 +945,39 @@
       <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>45363</v>
-      </c>
-      <c r="F2">
-        <v>45386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45363.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45386.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45363.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45388.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -964,16 +985,17 @@
       <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>45363.0</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -981,16 +1003,19 @@
       <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45373.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45387.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -998,16 +1023,17 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>45374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45374.0</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -1015,33 +1041,39 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45375.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>45386.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+        <v>97</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45375.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>45387.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -1049,28 +1081,32 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45375.0</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>45386</v>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45386.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45387.0</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1122,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1115,9 +1151,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -1134,16 +1170,17 @@
       <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>45363.0</v>
+      </c>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -1160,16 +1197,17 @@
       <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>45363.0</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -1184,21 +1222,21 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>45383</v>
-      </c>
-      <c r="I4">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>45383.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45386.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -1215,19 +1253,19 @@
       <c r="F5" t="s">
         <v>59</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>45384</v>
-      </c>
-      <c r="I5">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>45384.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>45387.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -1244,14 +1282,14 @@
       <c r="F6" t="s">
         <v>63</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>45384</v>
-      </c>
-      <c r="I6">
-        <v>45384</v>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>45384.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>45384.0</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1307,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1298,21 +1336,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>400000</v>
+        <v>35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>82</v>
@@ -1323,22 +1361,22 @@
       <c r="H2" t="s">
         <v>84</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="I2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>400000</v>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E3" t="s">
         <v>81</v>
@@ -1352,22 +1390,22 @@
       <c r="H3" t="s">
         <v>84</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>400000</v>
+      <c r="C4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
@@ -1381,22 +1419,22 @@
       <c r="H4" t="s">
         <v>84</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="I4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>400000</v>
+      <c r="C5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E5" t="s">
         <v>81</v>
@@ -1410,22 +1448,22 @@
       <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="I5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>400000</v>
+      <c r="C6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E6" t="s">
         <v>81</v>
@@ -1439,22 +1477,22 @@
       <c r="H6" t="s">
         <v>84</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="I6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>400000</v>
+        <v>96</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E7" t="s">
         <v>81</v>
@@ -1468,22 +1506,22 @@
       <c r="H7" t="s">
         <v>84</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>400000</v>
+        <v>96</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E8" t="s">
         <v>81</v>
@@ -1497,22 +1535,22 @@
       <c r="H8" t="s">
         <v>84</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+      <c r="I8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>400000</v>
+        <v>96</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E9" t="s">
         <v>81</v>
@@ -1526,22 +1564,22 @@
       <c r="H9" t="s">
         <v>84</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="I9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>400000</v>
+        <v>96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E10" t="s">
         <v>81</v>
@@ -1555,22 +1593,22 @@
       <c r="H10" t="s">
         <v>84</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+      <c r="I10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>400000</v>
+        <v>96</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E11" t="s">
         <v>81</v>
@@ -1584,22 +1622,22 @@
       <c r="H11" t="s">
         <v>84</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+      <c r="I11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>400000</v>
+      <c r="C12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E12" t="s">
         <v>81</v>
@@ -1613,22 +1651,22 @@
       <c r="H12" t="s">
         <v>84</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
+      <c r="I12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>400000</v>
+      <c r="C13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E13" t="s">
         <v>81</v>
@@ -1642,22 +1680,22 @@
       <c r="H13" t="s">
         <v>84</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
+      <c r="I13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>400000</v>
+      <c r="C14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E14" t="s">
         <v>81</v>
@@ -1671,22 +1709,22 @@
       <c r="H14" t="s">
         <v>84</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
+      <c r="I14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>400000</v>
+      <c r="C15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E15" t="s">
         <v>81</v>
@@ -1700,22 +1738,22 @@
       <c r="H15" t="s">
         <v>84</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>400000</v>
+      <c r="C16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>400000.0</v>
       </c>
       <c r="E16" t="s">
         <v>81</v>
@@ -1729,22 +1767,22 @@
       <c r="H16" t="s">
         <v>84</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
+      <c r="I16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22.0</v>
       </c>
       <c r="E17" t="s">
         <v>81</v>
@@ -1758,22 +1796,22 @@
       <c r="H17" t="s">
         <v>84</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
+      <c r="I17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>22.0</v>
       </c>
       <c r="E18" t="s">
         <v>81</v>
@@ -1787,8 +1825,8 @@
       <c r="H18" t="s">
         <v>84</v>
       </c>
-      <c r="I18">
-        <v>0</v>
+      <c r="I18" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1806,8 +1844,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">

--- a/PRO1041_NHOM4/dataJeanStore.xlsx
+++ b/PRO1041_NHOM4/dataJeanStore.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="101">
   <si>
     <t>Id khách hàng</t>
   </si>
